--- a/data/Репродукция и жизненные циклы организмов (Основные вопросы).xlsx
+++ b/data/Репродукция и жизненные циклы организмов (Основные вопросы).xlsx
@@ -10,7 +10,7 @@
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$E$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$D$107</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -22,10 +22,10 @@
     <t>Timestamp</t>
   </si>
   <si>
+    <t>Login</t>
+  </si>
+  <si>
     <t>Score</t>
-  </si>
-  <si>
-    <t>Login</t>
   </si>
   <si>
     <t>Add_1</t>
@@ -285,10 +285,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="22">
@@ -305,8 +305,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -320,8 +336,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,14 +375,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,9 +398,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,56 +421,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,15 +436,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,19 +465,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,163 +645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,47 +656,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -724,11 +683,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,6 +702,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -756,151 +747,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1170,20 +1170,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="B2:B107 D2:D107"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="11" width="21.5740740740741" customWidth="1"/>
+    <col min="1" max="10" width="21.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,343 +1196,324 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>44122.7270490856</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>44122.8341378472</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>44124.593194456</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>44125.8879014468</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>44125.9637892361</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="3">
         <v>8</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>44125.9656288194</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="3">
         <v>9</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>44125.9784042014</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>44125.9784520949</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>44125.9784560185</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>44125.9784664931</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>44125.9784765509</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>44125.9790316898</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>44125.9992278241</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>44126.8986911343</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>44126.9445279861</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>44126.9629585532</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>44126.9634740625</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3">
         <v>10</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>44127.0073247222</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3">
         <v>9</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>44127.0141579398</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3">
         <v>10</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>44127.0142490741</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3">
         <v>10</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>44127.0170066088</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
         <v>10</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D22" s="3">
         <v>2</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>44127.0202142824</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3">
         <v>10</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>44127.4175866435</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3">
         <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -1542,265 +1523,249 @@
       <c r="A25" s="2">
         <v>44127.4602061111</v>
       </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>44127.4948111227</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3">
         <v>7</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D26" s="3">
         <v>0</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>44127.5346505208</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
         <v>12</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>44127.8070129977</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
         <v>9</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D28" s="3">
         <v>0</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>44127.8302969676</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="3">
         <v>7</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>44127.8518989352</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3">
         <v>11</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D30" s="3">
         <v>0</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>44127.8526984028</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3">
         <v>12</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D31" s="3">
         <v>2</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5">
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2">
         <v>44127.9105027546</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3">
         <v>12</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>44128.5421405787</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3">
         <v>13</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D33" s="3">
         <v>2</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>44128.608142963</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3">
         <v>10</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D34" s="3">
         <v>0</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
         <v>44128.6401964931</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3">
         <v>10</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D35" s="3">
         <v>2</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>44128.72330375</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3">
         <v>8</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D36" s="3">
         <v>0</v>
       </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5">
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>44128.7633999884</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="3">
         <v>10</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D37" s="3">
         <v>0</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5">
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2">
         <v>44128.8187937731</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="3">
         <v>12</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D38" s="3">
         <v>2</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="2">
         <v>44128.8591091782</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3">
         <v>11</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D39" s="3">
         <v>2</v>
       </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2">
         <v>44128.9051197338</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="3">
         <v>12</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D40" s="3">
         <v>0</v>
       </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5">
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="2">
         <v>44128.9723471644</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="3">
         <v>13</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
         <v>44128.9964096991</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="3">
         <v>13</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -1810,307 +1775,291 @@
       <c r="A43" s="2">
         <v>44129.018487963</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3">
         <v>6</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:4">
       <c r="A44" s="2">
         <v>44129.0772968287</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="3">
         <v>12</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2">
         <v>44129.3972245602</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="3">
         <v>10</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5">
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="2">
         <v>44129.4755371644</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="3">
         <v>13</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D46" s="3">
         <v>2</v>
       </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="2">
         <v>44129.4813396759</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="3">
         <v>11</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
         <v>44129.4867083449</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="3">
         <v>8</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:4">
       <c r="A49" s="2">
         <v>44129.5387097222</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="3">
         <v>13</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
         <v>44129.5387235764</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="3">
         <v>13</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D50" s="3">
         <v>0</v>
       </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
         <v>44129.5494149653</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="3">
         <v>15</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="D51" s="3">
         <v>0</v>
       </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2">
         <v>44129.5507269329</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="3">
         <v>15</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="2">
         <v>44129.5523167824</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="3">
         <v>14</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D53" s="3">
         <v>2</v>
       </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5">
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="2">
         <v>44129.5781905556</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="3">
         <v>12</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D54" s="3">
         <v>2</v>
       </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5">
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="2">
         <v>44129.5869630787</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="3">
         <v>13</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D55" s="3">
         <v>2</v>
       </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5">
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2">
         <v>44129.5999133218</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="3">
         <v>13</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D56" s="3">
         <v>2</v>
       </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5">
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2">
         <v>44129.6260601852</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="3">
         <v>13</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D57" s="3">
         <v>2</v>
       </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5">
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="2">
         <v>44129.6300168634</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="3">
         <v>14</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D58" s="3">
         <v>2</v>
       </c>
-      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
         <v>44129.6537806829</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="3">
         <v>11</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:4">
       <c r="A60" s="2">
         <v>44129.6678952894</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="3">
         <v>14</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D60" s="3">
         <v>2</v>
       </c>
-      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
         <v>44129.7424565625</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="3">
         <v>9</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D61" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:4">
       <c r="A62" s="2">
         <v>44129.785766713</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="3">
         <v>10</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
         <v>44129.8006657176</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="3">
         <v>7</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
@@ -2120,114 +2069,109 @@
       <c r="A64" s="2">
         <v>44129.8710742593</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="3">
         <v>13</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D64" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:4">
       <c r="A65" s="2">
         <v>44129.9418778935</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="3">
         <v>12</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D65" s="3">
         <v>2</v>
       </c>
-      <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
         <v>44129.9547458449</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="3">
         <v>12</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="D66" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:4">
       <c r="A67" s="2">
         <v>44129.9784752083</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="3">
         <v>11</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D67" s="3">
         <v>0</v>
       </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5">
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="2">
         <v>44130.029025544</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="3">
         <v>13</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D68" s="3">
         <v>0</v>
       </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5">
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="2">
         <v>44130.0415849074</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="3">
         <v>8</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D69" s="3">
         <v>2</v>
       </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5">
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="2">
         <v>44130.0526502893</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="3">
         <v>13</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D70" s="3">
         <v>2</v>
       </c>
-      <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
         <v>44130.4081484028</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="3">
         <v>11</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D71" s="3">
         <v>2</v>
@@ -2237,11 +2181,11 @@
       <c r="A72" s="2">
         <v>44130.5431527778</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="3">
         <v>6</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
@@ -2251,11 +2195,11 @@
       <c r="A73" s="2">
         <v>44130.5483930903</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="3">
         <v>9</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -2265,324 +2209,305 @@
       <c r="A74" s="2">
         <v>44130.5559774537</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="3">
         <v>6</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D74" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:4">
       <c r="A75" s="2">
         <v>44130.5651804398</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="3">
         <v>8</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D75" s="3">
         <v>0</v>
       </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5">
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="2">
         <v>44130.591464537</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="3">
         <v>12</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D76" s="3">
         <v>2</v>
       </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5">
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="2">
         <v>44130.6595911806</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="3">
         <v>10</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D77" s="3">
         <v>2</v>
       </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5">
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="2">
         <v>44130.6942790278</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="3">
         <v>12</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D78" s="3">
         <v>0</v>
       </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5">
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="2">
         <v>44130.7410646528</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="3">
         <v>8</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D79" s="3">
         <v>0</v>
       </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5">
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="2">
         <v>44130.7570407755</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="3">
         <v>13</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="D80" s="3">
         <v>0</v>
       </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5">
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="2">
         <v>44130.7621838542</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="3">
         <v>11</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D81" s="3">
         <v>0</v>
       </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5">
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="2">
         <v>44130.7712877315</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="3">
         <v>11</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D82" s="3">
         <v>0</v>
       </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5">
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="2">
         <v>44130.7833731944</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="3">
         <v>12</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5">
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="2">
         <v>44130.7872990856</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="3">
         <v>11</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D84" s="3">
         <v>0</v>
       </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5">
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="2">
         <v>44130.7893520486</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="3">
         <v>13</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D85" s="3">
         <v>2</v>
       </c>
-      <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
         <v>44130.8219412384</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="3">
         <v>13</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="D86" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:4">
       <c r="A87" s="2">
         <v>44130.8513420486</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="3">
         <v>12</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D87" s="3">
         <v>0</v>
       </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5">
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="2">
         <v>44130.8681602315</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="3">
         <v>11</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D88" s="3">
         <v>0</v>
       </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5">
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="2">
         <v>44130.8711582523</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="3">
         <v>12</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D89" s="3">
         <v>2</v>
       </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5">
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="2">
         <v>44130.8746483912</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" s="3">
         <v>13</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D90" s="3">
         <v>0</v>
       </c>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5">
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="2">
         <v>44130.8777284259</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="3">
         <v>12</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D91" s="3">
         <v>2</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5">
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="2">
         <v>44130.8847070949</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="3">
         <v>12</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D92" s="3">
         <v>2</v>
       </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5">
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="2">
         <v>44130.9039923843</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" s="3">
         <v>12</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D93" s="3">
         <v>2</v>
       </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5">
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="2">
         <v>44130.9101309144</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="3">
         <v>12</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
         <v>44130.9120068981</v>
       </c>
-      <c r="B95" s="3">
-        <v>0</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>79</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0</v>
       </c>
       <c r="D95" s="3">
         <v>0</v>
@@ -2592,70 +2517,67 @@
       <c r="A96" s="2">
         <v>44130.9174238194</v>
       </c>
-      <c r="B96" s="3">
-        <v>0</v>
-      </c>
-      <c r="C96" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
       <c r="D96" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:4">
       <c r="A97" s="2">
         <v>44130.9274099884</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="3">
         <v>11</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D97" s="3">
         <v>0</v>
       </c>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5">
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="2">
         <v>44130.9330554745</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C98" s="3">
         <v>12</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D98" s="3">
         <v>0</v>
       </c>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5">
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="2">
         <v>44130.9343387384</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" s="3">
         <v>11</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D99" s="3">
         <v>2</v>
       </c>
-      <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
         <v>44130.9895930208</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="3">
         <v>3</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
@@ -2665,108 +2587,102 @@
       <c r="A101" s="2">
         <v>44130.9942510417</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" s="3">
         <v>11</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:4">
       <c r="A102" s="2">
         <v>44130.9990209606</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" s="3">
         <v>8</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D102" s="3">
         <v>2</v>
       </c>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5">
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="2">
         <v>44131.0020854745</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="3">
         <v>11</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D103" s="3">
         <v>0</v>
       </c>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5">
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="2">
         <v>44131.4178225231</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="3">
         <v>13</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D104" s="3">
         <v>0</v>
       </c>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5">
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="2">
         <v>44131.8693357639</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" s="3">
         <v>12</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D105" s="3">
         <v>0</v>
       </c>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5">
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="2">
         <v>44132.7597859375</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="3">
         <v>8</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D106" s="3">
         <v>0</v>
       </c>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5">
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="2">
         <v>44134.8494395602</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="3">
         <v>11</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D107" s="3">
         <v>2</v>
       </c>
-      <c r="E107" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E107">
+  <autoFilter ref="A1:D107">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/Репродукция и жизненные циклы организмов (Основные вопросы).xlsx
+++ b/data/Репродукция и жизненные циклы организмов (Основные вопросы).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
   <si>
     <t>Timestamp</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>st076316</t>
+  </si>
+  <si>
+    <t>11/14/2020 19:05:55</t>
+  </si>
+  <si>
+    <t>st076056</t>
   </si>
 </sst>
 </file>
@@ -287,9 +293,9 @@
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -305,9 +311,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,53 +322,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,9 +340,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,9 +401,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,31 +432,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,7 +448,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,19 +471,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,25 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,133 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,30 +662,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,7 +684,36 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,13 +733,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,168 +762,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1170,12 +1177,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -1183,7 +1190,7 @@
     <col min="1" max="10" width="21.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="13.2" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="2">
         <v>44122.7270490856</v>
       </c>
@@ -1211,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="13.2" spans="1:4">
       <c r="A3" s="2">
         <v>44122.8341378472</v>
       </c>
@@ -1225,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" ht="13.2" spans="1:4">
       <c r="A4" s="2">
         <v>44124.593194456</v>
       </c>
@@ -1239,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="13.2" spans="1:4">
       <c r="A5" s="2">
         <v>44125.8879014468</v>
       </c>
@@ -1253,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="13.2" spans="1:4">
       <c r="A6" s="2">
         <v>44125.9637892361</v>
       </c>
@@ -1267,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" ht="13.2" spans="1:4">
       <c r="A7" s="2">
         <v>44125.9656288194</v>
       </c>
@@ -1281,7 +1288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" ht="13.2" spans="1:4">
       <c r="A8" s="2">
         <v>44125.9784042014</v>
       </c>
@@ -1295,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" ht="13.2" spans="1:4">
       <c r="A9" s="2">
         <v>44125.9784520949</v>
       </c>
@@ -1309,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="13.2" spans="1:4">
       <c r="A10" s="2">
         <v>44125.9784560185</v>
       </c>
@@ -1323,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="13.2" spans="1:4">
       <c r="A11" s="2">
         <v>44125.9784664931</v>
       </c>
@@ -1337,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="13.2" spans="1:4">
       <c r="A12" s="2">
         <v>44125.9784765509</v>
       </c>
@@ -1351,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="13.2" spans="1:4">
       <c r="A13" s="2">
         <v>44125.9790316898</v>
       </c>
@@ -1365,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" ht="13.2" spans="1:4">
       <c r="A14" s="2">
         <v>44125.9992278241</v>
       </c>
@@ -1379,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="13.2" spans="1:4">
       <c r="A15" s="2">
         <v>44126.8986911343</v>
       </c>
@@ -1393,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="13.2" spans="1:4">
       <c r="A16" s="2">
         <v>44126.9445279861</v>
       </c>
@@ -1407,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" ht="13.2" spans="1:4">
       <c r="A17" s="2">
         <v>44126.9629585532</v>
       </c>
@@ -1421,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" ht="13.2" spans="1:4">
       <c r="A18" s="2">
         <v>44126.9634740625</v>
       </c>
@@ -1435,7 +1442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" ht="13.2" spans="1:4">
       <c r="A19" s="2">
         <v>44127.0073247222</v>
       </c>
@@ -1449,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" ht="13.2" spans="1:4">
       <c r="A20" s="2">
         <v>44127.0141579398</v>
       </c>
@@ -1463,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" ht="13.2" spans="1:4">
       <c r="A21" s="2">
         <v>44127.0142490741</v>
       </c>
@@ -1477,7 +1484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" ht="13.2" spans="1:4">
       <c r="A22" s="2">
         <v>44127.0170066088</v>
       </c>
@@ -1491,7 +1498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" ht="13.2" spans="1:4">
       <c r="A23" s="2">
         <v>44127.0202142824</v>
       </c>
@@ -1505,7 +1512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" ht="13.2" spans="1:4">
       <c r="A24" s="2">
         <v>44127.4175866435</v>
       </c>
@@ -1519,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" ht="13.2" spans="1:4">
       <c r="A25" s="2">
         <v>44127.4602061111</v>
       </c>
@@ -1533,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" ht="13.2" spans="1:4">
       <c r="A26" s="2">
         <v>44127.4948111227</v>
       </c>
@@ -1547,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" ht="13.2" spans="1:4">
       <c r="A27" s="2">
         <v>44127.5346505208</v>
       </c>
@@ -1561,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" ht="13.2" spans="1:4">
       <c r="A28" s="2">
         <v>44127.8070129977</v>
       </c>
@@ -1575,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" ht="13.2" spans="1:4">
       <c r="A29" s="2">
         <v>44127.8302969676</v>
       </c>
@@ -1589,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" ht="13.2" spans="1:4">
       <c r="A30" s="2">
         <v>44127.8518989352</v>
       </c>
@@ -1603,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" ht="13.2" spans="1:4">
       <c r="A31" s="2">
         <v>44127.8526984028</v>
       </c>
@@ -1617,7 +1624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" ht="13.2" spans="1:4">
       <c r="A32" s="2">
         <v>44127.9105027546</v>
       </c>
@@ -1631,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" ht="13.2" spans="1:4">
       <c r="A33" s="2">
         <v>44128.5421405787</v>
       </c>
@@ -1645,7 +1652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" ht="13.2" spans="1:4">
       <c r="A34" s="2">
         <v>44128.608142963</v>
       </c>
@@ -1659,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" ht="13.2" spans="1:4">
       <c r="A35" s="2">
         <v>44128.6401964931</v>
       </c>
@@ -1673,7 +1680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" ht="13.2" spans="1:4">
       <c r="A36" s="2">
         <v>44128.72330375</v>
       </c>
@@ -1687,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" ht="13.2" spans="1:4">
       <c r="A37" s="2">
         <v>44128.7633999884</v>
       </c>
@@ -1701,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" ht="13.2" spans="1:4">
       <c r="A38" s="2">
         <v>44128.8187937731</v>
       </c>
@@ -1715,7 +1722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" ht="13.2" spans="1:4">
       <c r="A39" s="2">
         <v>44128.8591091782</v>
       </c>
@@ -1729,7 +1736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" ht="13.2" spans="1:4">
       <c r="A40" s="2">
         <v>44128.9051197338</v>
       </c>
@@ -1743,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" ht="13.2" spans="1:4">
       <c r="A41" s="2">
         <v>44128.9723471644</v>
       </c>
@@ -1757,7 +1764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" ht="13.2" spans="1:4">
       <c r="A42" s="2">
         <v>44128.9964096991</v>
       </c>
@@ -1771,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" ht="13.2" spans="1:4">
       <c r="A43" s="2">
         <v>44129.018487963</v>
       </c>
@@ -1785,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" ht="13.2" spans="1:4">
       <c r="A44" s="2">
         <v>44129.0772968287</v>
       </c>
@@ -1799,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" ht="13.2" spans="1:4">
       <c r="A45" s="2">
         <v>44129.3972245602</v>
       </c>
@@ -1813,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" ht="13.2" spans="1:4">
       <c r="A46" s="2">
         <v>44129.4755371644</v>
       </c>
@@ -1827,7 +1834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" ht="13.2" spans="1:4">
       <c r="A47" s="2">
         <v>44129.4813396759</v>
       </c>
@@ -1841,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" ht="13.2" spans="1:4">
       <c r="A48" s="2">
         <v>44129.4867083449</v>
       </c>
@@ -1855,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" ht="13.2" spans="1:4">
       <c r="A49" s="2">
         <v>44129.5387097222</v>
       </c>
@@ -1869,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" ht="13.2" spans="1:4">
       <c r="A50" s="2">
         <v>44129.5387235764</v>
       </c>
@@ -1883,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" ht="13.2" spans="1:4">
       <c r="A51" s="2">
         <v>44129.5494149653</v>
       </c>
@@ -1897,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" ht="13.2" spans="1:4">
       <c r="A52" s="2">
         <v>44129.5507269329</v>
       </c>
@@ -1911,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" ht="13.2" spans="1:4">
       <c r="A53" s="2">
         <v>44129.5523167824</v>
       </c>
@@ -1925,7 +1932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" ht="13.2" spans="1:4">
       <c r="A54" s="2">
         <v>44129.5781905556</v>
       </c>
@@ -1939,7 +1946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" ht="13.2" spans="1:4">
       <c r="A55" s="2">
         <v>44129.5869630787</v>
       </c>
@@ -1953,7 +1960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" ht="13.2" spans="1:4">
       <c r="A56" s="2">
         <v>44129.5999133218</v>
       </c>
@@ -1967,7 +1974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" ht="13.2" spans="1:4">
       <c r="A57" s="2">
         <v>44129.6260601852</v>
       </c>
@@ -1981,7 +1988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" ht="13.2" spans="1:4">
       <c r="A58" s="2">
         <v>44129.6300168634</v>
       </c>
@@ -1995,7 +2002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" ht="13.2" spans="1:4">
       <c r="A59" s="2">
         <v>44129.6537806829</v>
       </c>
@@ -2009,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" ht="13.2" spans="1:4">
       <c r="A60" s="2">
         <v>44129.6678952894</v>
       </c>
@@ -2023,7 +2030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" ht="13.2" spans="1:4">
       <c r="A61" s="2">
         <v>44129.7424565625</v>
       </c>
@@ -2037,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" ht="13.2" spans="1:4">
       <c r="A62" s="2">
         <v>44129.785766713</v>
       </c>
@@ -2051,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" ht="13.2" spans="1:4">
       <c r="A63" s="2">
         <v>44129.8006657176</v>
       </c>
@@ -2065,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" ht="13.2" spans="1:4">
       <c r="A64" s="2">
         <v>44129.8710742593</v>
       </c>
@@ -2079,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" ht="13.2" spans="1:4">
       <c r="A65" s="2">
         <v>44129.9418778935</v>
       </c>
@@ -2093,7 +2100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" ht="13.2" spans="1:4">
       <c r="A66" s="2">
         <v>44129.9547458449</v>
       </c>
@@ -2107,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" ht="13.2" spans="1:4">
       <c r="A67" s="2">
         <v>44129.9784752083</v>
       </c>
@@ -2121,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" ht="13.2" spans="1:4">
       <c r="A68" s="2">
         <v>44130.029025544</v>
       </c>
@@ -2135,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" ht="13.2" spans="1:4">
       <c r="A69" s="2">
         <v>44130.0415849074</v>
       </c>
@@ -2149,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" ht="13.2" spans="1:4">
       <c r="A70" s="2">
         <v>44130.0526502893</v>
       </c>
@@ -2163,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" ht="13.2" spans="1:4">
       <c r="A71" s="2">
         <v>44130.4081484028</v>
       </c>
@@ -2177,7 +2184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" ht="13.2" spans="1:4">
       <c r="A72" s="2">
         <v>44130.5431527778</v>
       </c>
@@ -2191,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" ht="13.2" spans="1:4">
       <c r="A73" s="2">
         <v>44130.5483930903</v>
       </c>
@@ -2205,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" ht="13.2" spans="1:4">
       <c r="A74" s="2">
         <v>44130.5559774537</v>
       </c>
@@ -2219,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" ht="13.2" spans="1:4">
       <c r="A75" s="2">
         <v>44130.5651804398</v>
       </c>
@@ -2233,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" ht="13.2" spans="1:4">
       <c r="A76" s="2">
         <v>44130.591464537</v>
       </c>
@@ -2247,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" ht="13.2" spans="1:4">
       <c r="A77" s="2">
         <v>44130.6595911806</v>
       </c>
@@ -2261,7 +2268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" ht="13.2" spans="1:4">
       <c r="A78" s="2">
         <v>44130.6942790278</v>
       </c>
@@ -2275,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" ht="13.2" spans="1:4">
       <c r="A79" s="2">
         <v>44130.7410646528</v>
       </c>
@@ -2289,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" ht="13.2" spans="1:4">
       <c r="A80" s="2">
         <v>44130.7570407755</v>
       </c>
@@ -2303,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" ht="13.2" spans="1:4">
       <c r="A81" s="2">
         <v>44130.7621838542</v>
       </c>
@@ -2317,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" ht="13.2" spans="1:4">
       <c r="A82" s="2">
         <v>44130.7712877315</v>
       </c>
@@ -2331,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" ht="13.2" spans="1:4">
       <c r="A83" s="2">
         <v>44130.7833731944</v>
       </c>
@@ -2345,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" ht="13.2" spans="1:4">
       <c r="A84" s="2">
         <v>44130.7872990856</v>
       </c>
@@ -2359,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" ht="13.2" spans="1:4">
       <c r="A85" s="2">
         <v>44130.7893520486</v>
       </c>
@@ -2373,7 +2380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" ht="13.2" spans="1:4">
       <c r="A86" s="2">
         <v>44130.8219412384</v>
       </c>
@@ -2387,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" ht="13.2" spans="1:4">
       <c r="A87" s="2">
         <v>44130.8513420486</v>
       </c>
@@ -2401,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" ht="13.2" spans="1:4">
       <c r="A88" s="2">
         <v>44130.8681602315</v>
       </c>
@@ -2415,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" ht="13.2" spans="1:4">
       <c r="A89" s="2">
         <v>44130.8711582523</v>
       </c>
@@ -2429,7 +2436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" ht="13.2" spans="1:4">
       <c r="A90" s="2">
         <v>44130.8746483912</v>
       </c>
@@ -2443,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" ht="13.2" spans="1:4">
       <c r="A91" s="2">
         <v>44130.8777284259</v>
       </c>
@@ -2457,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" ht="13.2" spans="1:4">
       <c r="A92" s="2">
         <v>44130.8847070949</v>
       </c>
@@ -2471,7 +2478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" ht="13.2" spans="1:4">
       <c r="A93" s="2">
         <v>44130.9039923843</v>
       </c>
@@ -2485,7 +2492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" ht="13.2" spans="1:4">
       <c r="A94" s="2">
         <v>44130.9101309144</v>
       </c>
@@ -2499,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" ht="13.2" spans="1:4">
       <c r="A95" s="2">
         <v>44130.9120068981</v>
       </c>
@@ -2513,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" ht="13.2" spans="1:4">
       <c r="A96" s="2">
         <v>44130.9174238194</v>
       </c>
@@ -2527,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" ht="13.2" spans="1:4">
       <c r="A97" s="2">
         <v>44130.9274099884</v>
       </c>
@@ -2541,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" ht="13.2" spans="1:4">
       <c r="A98" s="2">
         <v>44130.9330554745</v>
       </c>
@@ -2555,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" ht="13.2" spans="1:4">
       <c r="A99" s="2">
         <v>44130.9343387384</v>
       </c>
@@ -2569,7 +2576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" ht="13.2" spans="1:4">
       <c r="A100" s="2">
         <v>44130.9895930208</v>
       </c>
@@ -2583,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" ht="13.2" spans="1:4">
       <c r="A101" s="2">
         <v>44130.9942510417</v>
       </c>
@@ -2597,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" ht="13.2" spans="1:4">
       <c r="A102" s="2">
         <v>44130.9990209606</v>
       </c>
@@ -2611,7 +2618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" ht="13.2" spans="1:4">
       <c r="A103" s="2">
         <v>44131.0020854745</v>
       </c>
@@ -2625,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" ht="13.2" spans="1:4">
       <c r="A104" s="2">
         <v>44131.4178225231</v>
       </c>
@@ -2639,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" ht="13.2" spans="1:4">
       <c r="A105" s="2">
         <v>44131.8693357639</v>
       </c>
@@ -2653,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" ht="13.2" spans="1:4">
       <c r="A106" s="2">
         <v>44132.7597859375</v>
       </c>
@@ -2667,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" ht="13.2" spans="1:4">
       <c r="A107" s="2">
         <v>44134.8494395602</v>
       </c>
@@ -2678,6 +2685,20 @@
         <v>11</v>
       </c>
       <c r="D107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:4">
+      <c r="A108" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108">
+        <v>16</v>
+      </c>
+      <c r="D108">
         <v>2</v>
       </c>
     </row>
